--- a/其它/秋招信息.xlsx
+++ b/其它/秋招信息.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>公司名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -111,6 +111,18 @@
   </si>
   <si>
     <t>蚂蚁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网易互娱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://game.campus.163.com/position?sc=152</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端就10个HC 8月下旬笔试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -471,7 +483,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -581,6 +593,20 @@
         <v>23</v>
       </c>
     </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <v>7.26</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+    </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>20</v>
@@ -591,9 +617,10 @@
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
     <hyperlink ref="C3" r:id="rId2" location="/full"/>
+    <hyperlink ref="C16" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
